--- a/Docs/task05/Backlog.xlsx
+++ b/Docs/task05/Backlog.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A79367F8-76D3-41E0-BC84-642B4AE8640F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{00600CE3-59FB-4FA8-A65A-870764936945}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="39480" windowHeight="11580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -19,11 +14,12 @@
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -167,6 +163,42 @@
   </si>
   <si>
     <t>Time of Record</t>
+  </si>
+  <si>
+    <t>Skaneshan</t>
+  </si>
+  <si>
+    <t>herrs2</t>
+  </si>
+  <si>
+    <t>gertl1</t>
+  </si>
+  <si>
+    <t>Hyferion</t>
+  </si>
+  <si>
+    <t>bluedemise</t>
+  </si>
+  <si>
+    <t>jmpout</t>
+  </si>
+  <si>
+    <t>Simon Herrmann</t>
+  </si>
+  <si>
+    <t>Lars Gertsch</t>
+  </si>
+  <si>
+    <t>Silas Stulz</t>
+  </si>
+  <si>
+    <t>Steve Blaser</t>
+  </si>
+  <si>
+    <t>Fabio Caggiano</t>
+  </si>
+  <si>
+    <t>Sinthujah Kaneshan Balasubramaniam</t>
   </si>
 </sst>
 </file>
@@ -606,15 +638,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -624,6 +656,54 @@
       </c>
       <c r="B1" s="3" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -635,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
